--- a/diabetes/prevalence/California.xlsx
+++ b/diabetes/prevalence/California.xlsx
@@ -1,28 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc.gov\project\CCHP_NCCD_DDT_Data1\epistat\KAK\Single map county data by state\DMPREV2013\compliance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/diabetes/prevalence/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA4AAA-A11D-114F-BE0D-383AFAE50441}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_California" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.4" hidden="1">data_California!$BW$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">data_California!$BW$6:$BW$15</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">data_California!$BX$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">data_California!$BX$6:$BX$15</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">data_California!$BW$5</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">data_California!$BW$6:$BW$15</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">data_California!$BX$5</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">data_California!$BX$6:$BX$15</definedName>
     <definedName name="IDX" localSheetId="0">data_California!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="131">
   <si>
     <t>Diagnosed Diabetes Prevalence</t>
   </si>
@@ -407,11 +423,20 @@
   <si>
     <t>Yuba County</t>
   </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Número Total de casos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Média </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\_x0000_.0"/>
   </numFmts>
@@ -1122,7 +1147,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1184,58 +1209,61 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="43" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1248,6 +1276,960 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Número Total de casos California</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_California!$BX$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número Total de casos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data_California!$BW$6:$BW$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data_California!$BX$6:$BX$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1551478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1675752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1788634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1891062.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985142.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2112548</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2211469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2297528</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2440812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8855-F749-925F-A8698B7CEF12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1756799919"/>
+        <c:axId val="1756816911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1756799919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756816911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1756816911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756799919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>460967</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>24754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>141529</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104398</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EC40F9-338C-D241-A54E-083C3E91FE14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1512,93 +2494,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BU62"/>
+  <dimension ref="A2:BY62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BS3" zoomScaleNormal="236" workbookViewId="0">
+      <selection activeCell="CD17" sqref="CD17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="8" style="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="8" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1640625" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.1640625" style="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="1" customWidth="1"/>
-    <col min="62" max="62" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.1640625" style="1" customWidth="1"/>
     <col min="68" max="68" width="8" style="1" customWidth="1"/>
-    <col min="69" max="69" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="1"/>
+    <col min="73" max="73" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="9.1640625" style="1"/>
+    <col min="76" max="76" width="17.5" style="1" customWidth="1"/>
+    <col min="77" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:73" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:77" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:77" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="20"/>
@@ -1692,9 +2678,9 @@
       <c r="BR3" s="19"/>
       <c r="BS3" s="19"/>
       <c r="BT3" s="19"/>
-      <c r="BU3" s="22"/>
+      <c r="BU3" s="21"/>
     </row>
-    <row r="4" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1915,7 +2901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2135,8 +3121,17 @@
       <c r="BU5" s="11">
         <v>9.5</v>
       </c>
+      <c r="BW5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2356,8 +3351,19 @@
       <c r="BU6" s="11">
         <v>10.7</v>
       </c>
+      <c r="BW6" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX6" s="23">
+        <f>SUM(D5:D62)</f>
+        <v>1551478</v>
+      </c>
+      <c r="BY6" s="23">
+        <f>AVERAGE(E5:E62)</f>
+        <v>6.4827586206896539</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2577,8 +3583,19 @@
       <c r="BU7" s="11">
         <v>10.199999999999999</v>
       </c>
+      <c r="BW7" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX7" s="1">
+        <f>SUM(K5:K62)</f>
+        <v>1675752</v>
+      </c>
+      <c r="BY7" s="23">
+        <f>AVERAGE(L5:L62)</f>
+        <v>6.8913793103448295</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2798,8 +3815,19 @@
       <c r="BU8" s="11">
         <v>11.4</v>
       </c>
+      <c r="BW8" s="1">
+        <v>2006</v>
+      </c>
+      <c r="BX8" s="23">
+        <f>SUM(R5:R62)</f>
+        <v>1788634</v>
+      </c>
+      <c r="BY8" s="23">
+        <f>AVERAGE(S5:S62)</f>
+        <v>7.1431034482758635</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -3019,8 +4047,19 @@
       <c r="BU9" s="11">
         <v>9.8000000000000007</v>
       </c>
+      <c r="BW9" s="1">
+        <v>2007</v>
+      </c>
+      <c r="BX9" s="23">
+        <f>SUM(Y5:Y62)</f>
+        <v>1891062.2</v>
+      </c>
+      <c r="BY9" s="23">
+        <f>AVERAGE(Z5:Z62)</f>
+        <v>7.475862068965518</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -3240,8 +4279,19 @@
       <c r="BU10" s="11">
         <v>11.8</v>
       </c>
+      <c r="BW10" s="1">
+        <v>2008</v>
+      </c>
+      <c r="BX10" s="1">
+        <f>SUM(AF5:AF62)</f>
+        <v>1985142.42</v>
+      </c>
+      <c r="BY10" s="23">
+        <f>AVERAGE(AG5:AG62)</f>
+        <v>7.6068965517241391</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -3461,8 +4511,19 @@
       <c r="BU11" s="11">
         <v>9.9</v>
       </c>
+      <c r="BW11" s="1">
+        <v>2009</v>
+      </c>
+      <c r="BX11" s="23">
+        <f>SUM(AM5:AM62)</f>
+        <v>2022190</v>
+      </c>
+      <c r="BY11" s="23">
+        <f>AVERAGE(AN5:AN62)</f>
+        <v>7.9293103448275861</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3682,8 +4743,19 @@
       <c r="BU12" s="11">
         <v>10.199999999999999</v>
       </c>
+      <c r="BW12" s="1">
+        <v>2010</v>
+      </c>
+      <c r="BX12" s="23">
+        <f>SUM(AT5:AT62)</f>
+        <v>2112548</v>
+      </c>
+      <c r="BY12" s="23">
+        <f>AVERAGE(AU5:AU62)</f>
+        <v>8.077586206896548</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3903,8 +4975,19 @@
       <c r="BU13" s="11">
         <v>7.7</v>
       </c>
+      <c r="BW13" s="1">
+        <v>2011</v>
+      </c>
+      <c r="BX13" s="1">
+        <f>SUM(BA5:BA62)</f>
+        <v>2211469</v>
+      </c>
+      <c r="BY13" s="23">
+        <f>AVERAGE(BB5:BB62)</f>
+        <v>8.4172413793103473</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -4124,8 +5207,19 @@
       <c r="BU14" s="11">
         <v>11.2</v>
       </c>
+      <c r="BW14" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BX14" s="23">
+        <f>SUM(BH5:BH62)</f>
+        <v>2297528</v>
+      </c>
+      <c r="BY14" s="23">
+        <f>AVERAGE(BI5:BI62)</f>
+        <v>8.5551724137931053</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -4345,8 +5439,19 @@
       <c r="BU15" s="11">
         <v>10.4</v>
       </c>
+      <c r="BW15" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BX15" s="23">
+        <f>SUM(BO5:BO62)</f>
+        <v>2440812</v>
+      </c>
+      <c r="BY15" s="23">
+        <f>AVERAGE(BP6:BP63)</f>
+        <v>8.7789473684210542</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -4567,7 +5672,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
@@ -4788,7 +5893,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="18" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -5009,7 +6114,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="19" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -5230,7 +6335,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="20" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -5451,7 +6556,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="21" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
@@ -5672,7 +6777,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="22" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
@@ -5893,7 +6998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
@@ -6114,7 +7219,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="24" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>11</v>
       </c>
@@ -6335,7 +7440,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="25" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -6556,7 +7661,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -6777,7 +7882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
@@ -6998,7 +8103,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -7219,7 +8324,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="29" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -7440,7 +8545,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="30" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
@@ -7661,7 +8766,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>11</v>
       </c>
@@ -7882,7 +8987,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="32" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
@@ -8103,7 +9208,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>11</v>
       </c>
@@ -8324,7 +9429,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
@@ -8545,7 +9650,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="35" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -8766,7 +9871,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="36" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
@@ -8987,7 +10092,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="37" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
@@ -9208,7 +10313,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>11</v>
       </c>
@@ -9429,7 +10534,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
@@ -9650,7 +10755,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="40" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>11</v>
       </c>
@@ -9871,7 +10976,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="41" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
@@ -10092,7 +11197,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="42" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>11</v>
       </c>
@@ -10313,7 +11418,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
@@ -10534,7 +11639,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="44" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
@@ -10755,7 +11860,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -10976,7 +12081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -11197,7 +12302,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -11418,7 +12523,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -11639,7 +12744,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -11860,7 +12965,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -12081,7 +13186,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -12302,7 +13407,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -12523,7 +13628,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>11</v>
       </c>
@@ -12744,7 +13849,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
@@ -12965,7 +14070,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
@@ -13186,7 +14291,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
@@ -13407,7 +14512,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>11</v>
       </c>
@@ -13628,7 +14733,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>11</v>
       </c>
@@ -13849,7 +14954,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -14070,7 +15175,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -14291,7 +15396,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
@@ -14512,7 +15617,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>11</v>
       </c>
@@ -14735,19 +15840,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AT3:AZ3"/>
-    <mergeCell ref="BA3:BG3"/>
-    <mergeCell ref="BH3:BN3"/>
-    <mergeCell ref="BO3:BU3"/>
     <mergeCell ref="AF3:AL3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AT3:AZ3"/>
+    <mergeCell ref="BA3:BG3"/>
+    <mergeCell ref="BH3:BN3"/>
+    <mergeCell ref="BO3:BU3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/diabetes/prevalence/California.xlsx
+++ b/diabetes/prevalence/California.xlsx
@@ -8,22 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/diabetes/prevalence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA4AAA-A11D-114F-BE0D-383AFAE50441}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C41B48-F152-2D45-8C86-41DD1675FA72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_California" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">data_California!$BW$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">data_California!$BW$6:$BW$15</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">data_California!$BX$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">data_California!$BX$6:$BX$15</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">data_California!$BW$5</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">data_California!$BW$6:$BW$15</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">data_California!$BX$5</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">data_California!$BX$6:$BX$15</definedName>
     <definedName name="IDX" localSheetId="0">data_California!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="136">
   <si>
     <t>Diagnosed Diabetes Prevalence</t>
   </si>
@@ -430,7 +422,22 @@
     <t>Número Total de casos</t>
   </si>
   <si>
-    <t xml:space="preserve">Média </t>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Média (Lower)</t>
+  </si>
+  <si>
+    <t>Média(Upper</t>
+  </si>
+  <si>
+    <t>Numero de pessoas</t>
+  </si>
+  <si>
+    <t>Numero L</t>
+  </si>
+  <si>
+    <t>Numero H</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1154,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1200,6 +1207,9 @@
     <xf numFmtId="164" fontId="23" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1215,7 +1225,7 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1276,960 +1286,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Número Total de casos California</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data_California!$BX$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Número Total de casos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data_California!$BW$6:$BW$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data_California!$BX$6:$BX$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1551478</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1675752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1788634</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1891062.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1985142.42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2022190</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2112548</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2211469</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2297528</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2440812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8855-F749-925F-A8698B7CEF12}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1756799919"/>
-        <c:axId val="1756816911"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1756799919"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1756816911"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1756816911"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1756799919"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>460967</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>24754</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>141529</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104398</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EC40F9-338C-D241-A54E-083C3E91FE14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2496,10 +1552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BY62"/>
+  <dimension ref="A2:CD62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BS3" zoomScaleNormal="236" workbookViewId="0">
-      <selection activeCell="CD17" sqref="CD17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BQ1" zoomScaleNormal="236" workbookViewId="0">
+      <selection activeCell="CB8" sqref="CB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2582,105 +1638,129 @@
     <col min="77" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:77" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:77" ht="18" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+    <row r="2" spans="1:82" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:82" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>2004</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="18">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="19">
         <v>2005</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19">
         <v>2006</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="18">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="19">
         <v>2007</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="18">
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="19">
         <v>2008</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18">
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="19">
         <v>2009</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="18">
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="19">
         <v>2010</v>
       </c>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="18">
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="19">
         <v>2011</v>
       </c>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18">
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="19">
         <v>2012</v>
       </c>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="18">
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="19">
         <v>2013</v>
       </c>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="21"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="22"/>
+      <c r="BW3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="4" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -2900,8 +1980,39 @@
       <c r="BU4" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="BW4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX4" s="18">
+        <f>SUM(D5:D300)</f>
+        <v>1551478</v>
+      </c>
+      <c r="BY4" s="18">
+        <f>AVERAGE(E5:E300)</f>
+        <v>6.4827586206896539</v>
+      </c>
+      <c r="BZ4" s="18">
+        <f>AVERAGE(F5:F300)</f>
+        <v>4.9310344827586219</v>
+      </c>
+      <c r="CA4" s="18">
+        <f>AVERAGE(G5:G300)</f>
+        <v>8.4155172413793071</v>
+      </c>
+      <c r="CB4" s="24">
+        <f>BX4*100/BY4</f>
+        <v>23932373.404255323</v>
+      </c>
+      <c r="CC4" s="1">
+        <f>BZ4/100*CB4</f>
+        <v>1180113.5851063835</v>
+      </c>
+      <c r="CD4" s="1">
+        <f>CA4/100*CB4</f>
+        <v>2014033.0101063824</v>
+      </c>
     </row>
-    <row r="5" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -3121,17 +2232,39 @@
       <c r="BU5" s="11">
         <v>9.5</v>
       </c>
-      <c r="BW5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>130</v>
+      <c r="BW5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX5" s="1">
+        <f>SUM(K5:K300)</f>
+        <v>1675752</v>
+      </c>
+      <c r="BY5" s="18">
+        <f>AVERAGE(L5:L300)</f>
+        <v>6.8913793103448295</v>
+      </c>
+      <c r="BZ5" s="18">
+        <f>AVERAGE(M5:M300)</f>
+        <v>5.1258620689655165</v>
+      </c>
+      <c r="CA5" s="18">
+        <f>AVERAGE(N5:N300)</f>
+        <v>9.1241379310344843</v>
+      </c>
+      <c r="CB5" s="24">
+        <f t="shared" ref="CB5:CB13" si="0">BX5*100/BY5</f>
+        <v>24316641.481110826</v>
+      </c>
+      <c r="CC5" s="1">
+        <f t="shared" ref="CC5:CC13" si="1">BZ5/100*CB5</f>
+        <v>1246437.5021265943</v>
+      </c>
+      <c r="CD5" s="1">
+        <f t="shared" ref="CD5:CD13" si="2">CA5/100*CB5</f>
+        <v>2218683.9089316987</v>
       </c>
     </row>
-    <row r="6" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -3352,18 +2485,38 @@
         <v>10.7</v>
       </c>
       <c r="BW6" s="1">
-        <v>2004</v>
-      </c>
-      <c r="BX6" s="23">
-        <f>SUM(D5:D62)</f>
-        <v>1551478</v>
-      </c>
-      <c r="BY6" s="23">
-        <f>AVERAGE(E5:E62)</f>
-        <v>6.4827586206896539</v>
+        <v>2006</v>
+      </c>
+      <c r="BX6" s="18">
+        <f>SUM(R5:R300)</f>
+        <v>1788634</v>
+      </c>
+      <c r="BY6" s="18">
+        <f>AVERAGE(S5:S300)</f>
+        <v>7.1431034482758635</v>
+      </c>
+      <c r="BZ6" s="18">
+        <f>AVERAGE(T5:T300)</f>
+        <v>5.2844827586206895</v>
+      </c>
+      <c r="CA6" s="18">
+        <f>AVERAGE(U5:U300)</f>
+        <v>9.5310344827586224</v>
+      </c>
+      <c r="CB6" s="24">
+        <f t="shared" si="0"/>
+        <v>25040012.551291328</v>
+      </c>
+      <c r="CC6" s="1">
+        <f t="shared" si="1"/>
+        <v>1323235.1460294467</v>
+      </c>
+      <c r="CD6" s="1">
+        <f t="shared" si="2"/>
+        <v>2386572.2307506637</v>
       </c>
     </row>
-    <row r="7" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -3584,18 +2737,38 @@
         <v>10.199999999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>2005</v>
-      </c>
-      <c r="BX7" s="1">
-        <f>SUM(K5:K62)</f>
-        <v>1675752</v>
-      </c>
-      <c r="BY7" s="23">
-        <f>AVERAGE(L5:L62)</f>
-        <v>6.8913793103448295</v>
+        <v>2007</v>
+      </c>
+      <c r="BX7" s="18">
+        <f>SUM(Y5:Y300)</f>
+        <v>1891062.2</v>
+      </c>
+      <c r="BY7" s="18">
+        <f>AVERAGE(Z5:Z300)</f>
+        <v>7.475862068965518</v>
+      </c>
+      <c r="BZ7" s="18">
+        <f>AVERAGE(AA5:AA300)</f>
+        <v>5.5206896551724123</v>
+      </c>
+      <c r="CA7" s="18">
+        <f>AVERAGE(AB5:AB300)</f>
+        <v>9.9396551724137936</v>
+      </c>
+      <c r="CB7" s="24">
+        <f t="shared" si="0"/>
+        <v>25295573.708487082</v>
+      </c>
+      <c r="CC7" s="1">
+        <f t="shared" si="1"/>
+        <v>1396490.1209409588</v>
+      </c>
+      <c r="CD7" s="1">
+        <f t="shared" si="2"/>
+        <v>2514292.8005073797</v>
       </c>
     </row>
-    <row r="8" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -3816,18 +2989,38 @@
         <v>11.4</v>
       </c>
       <c r="BW8" s="1">
-        <v>2006</v>
-      </c>
-      <c r="BX8" s="23">
-        <f>SUM(R5:R62)</f>
-        <v>1788634</v>
-      </c>
-      <c r="BY8" s="23">
-        <f>AVERAGE(S5:S62)</f>
-        <v>7.1431034482758635</v>
+        <v>2008</v>
+      </c>
+      <c r="BX8" s="1">
+        <f>SUM(AF5:AF300)</f>
+        <v>1985142.42</v>
+      </c>
+      <c r="BY8" s="18">
+        <f>AVERAGE(AG5:AG300)</f>
+        <v>7.6068965517241391</v>
+      </c>
+      <c r="BZ8" s="18">
+        <f>AVERAGE(AH5:AH300)</f>
+        <v>5.782758620689652</v>
+      </c>
+      <c r="CA8" s="18">
+        <f>AVERAGE(AI5:AI300)</f>
+        <v>9.8465517241379317</v>
+      </c>
+      <c r="CB8" s="24">
+        <f t="shared" si="0"/>
+        <v>26096613.862194013</v>
+      </c>
+      <c r="CC8" s="1">
+        <f t="shared" si="1"/>
+        <v>1509104.1878241152</v>
+      </c>
+      <c r="CD8" s="1">
+        <f t="shared" si="2"/>
+        <v>2569616.5821894831</v>
       </c>
     </row>
-    <row r="9" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -4048,18 +3241,38 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="BW9" s="1">
-        <v>2007</v>
-      </c>
-      <c r="BX9" s="23">
-        <f>SUM(Y5:Y62)</f>
-        <v>1891062.2</v>
-      </c>
-      <c r="BY9" s="23">
-        <f>AVERAGE(Z5:Z62)</f>
-        <v>7.475862068965518</v>
+        <v>2009</v>
+      </c>
+      <c r="BX9" s="18">
+        <f>SUM(AM5:AM300)</f>
+        <v>2022190</v>
+      </c>
+      <c r="BY9" s="18">
+        <f>AVERAGE(AN5:AN300)</f>
+        <v>7.9293103448275861</v>
+      </c>
+      <c r="BZ9" s="18">
+        <f>AVERAGE(AO5:AO300)</f>
+        <v>6.3689655172413779</v>
+      </c>
+      <c r="CA9" s="18">
+        <f>AVERAGE(AP5:AP300)</f>
+        <v>9.7586206896551726</v>
+      </c>
+      <c r="CB9" s="24">
+        <f t="shared" si="0"/>
+        <v>25502722.330941509</v>
+      </c>
+      <c r="CC9" s="1">
+        <f t="shared" si="1"/>
+        <v>1624259.5912154813</v>
+      </c>
+      <c r="CD9" s="1">
+        <f t="shared" si="2"/>
+        <v>2488713.9378125682</v>
       </c>
     </row>
-    <row r="10" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -4280,18 +3493,38 @@
         <v>11.8</v>
       </c>
       <c r="BW10" s="1">
-        <v>2008</v>
-      </c>
-      <c r="BX10" s="1">
-        <f>SUM(AF5:AF62)</f>
-        <v>1985142.42</v>
-      </c>
-      <c r="BY10" s="23">
-        <f>AVERAGE(AG5:AG62)</f>
-        <v>7.6068965517241391</v>
+        <v>2010</v>
+      </c>
+      <c r="BX10" s="18">
+        <f>SUM(AT5:AT300)</f>
+        <v>2112548</v>
+      </c>
+      <c r="BY10" s="18">
+        <f>AVERAGE(AU5:AU6300)</f>
+        <v>8.077586206896548</v>
+      </c>
+      <c r="BZ10" s="18">
+        <f>AVERAGE(AV5:AV6300)</f>
+        <v>6.4620689655172425</v>
+      </c>
+      <c r="CA10" s="18">
+        <f>AVERAGE(AW5:AW6300)</f>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="CB10" s="24">
+        <f t="shared" si="0"/>
+        <v>26153208.964781228</v>
+      </c>
+      <c r="CC10" s="1">
+        <f t="shared" si="1"/>
+        <v>1690038.4000000011</v>
+      </c>
+      <c r="CD10" s="1">
+        <f t="shared" si="2"/>
+        <v>2602244.2919957321</v>
       </c>
     </row>
-    <row r="11" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -4512,18 +3745,38 @@
         <v>9.9</v>
       </c>
       <c r="BW11" s="1">
-        <v>2009</v>
-      </c>
-      <c r="BX11" s="23">
-        <f>SUM(AM5:AM62)</f>
-        <v>2022190</v>
-      </c>
-      <c r="BY11" s="23">
-        <f>AVERAGE(AN5:AN62)</f>
-        <v>7.9293103448275861</v>
+        <v>2011</v>
+      </c>
+      <c r="BX11" s="1">
+        <f>SUM(BA5:BA300)</f>
+        <v>2211469</v>
+      </c>
+      <c r="BY11" s="18">
+        <f>AVERAGE(BB5:BB300)</f>
+        <v>8.4172413793103473</v>
+      </c>
+      <c r="BZ11" s="18">
+        <f>AVERAGE(BC5:BC300)</f>
+        <v>6.6931034482758625</v>
+      </c>
+      <c r="CA11" s="18">
+        <f>AVERAGE(BD5:BD300)</f>
+        <v>10.453448275862065</v>
+      </c>
+      <c r="CB11" s="24">
+        <f t="shared" si="0"/>
+        <v>26273085.2109791</v>
+      </c>
+      <c r="CC11" s="1">
+        <f t="shared" si="1"/>
+        <v>1758484.7722244977</v>
+      </c>
+      <c r="CD11" s="1">
+        <f t="shared" si="2"/>
+        <v>2746443.3730028658</v>
       </c>
     </row>
-    <row r="12" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -4744,18 +3997,38 @@
         <v>10.199999999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>2010</v>
-      </c>
-      <c r="BX12" s="23">
-        <f>SUM(AT5:AT62)</f>
-        <v>2112548</v>
-      </c>
-      <c r="BY12" s="23">
-        <f>AVERAGE(AU5:AU62)</f>
-        <v>8.077586206896548</v>
+        <v>2012</v>
+      </c>
+      <c r="BX12" s="18">
+        <f>SUM(BH5:BH300)</f>
+        <v>2297528</v>
+      </c>
+      <c r="BY12" s="18">
+        <f>AVERAGE(BI5:BI300)</f>
+        <v>8.5551724137931053</v>
+      </c>
+      <c r="BZ12" s="18">
+        <f>AVERAGE(BJ5:BJ300)</f>
+        <v>6.7637931034482781</v>
+      </c>
+      <c r="CA12" s="18">
+        <f>AVERAGE(BK5:BK300)</f>
+        <v>10.68793103448276</v>
+      </c>
+      <c r="CB12" s="24">
+        <f t="shared" si="0"/>
+        <v>26855426.037887942</v>
+      </c>
+      <c r="CC12" s="1">
+        <f t="shared" si="1"/>
+        <v>1816445.4542523175</v>
+      </c>
+      <c r="CD12" s="1">
+        <f t="shared" si="2"/>
+        <v>2870289.4139459892</v>
       </c>
     </row>
-    <row r="13" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4976,18 +4249,38 @@
         <v>7.7</v>
       </c>
       <c r="BW13" s="1">
-        <v>2011</v>
-      </c>
-      <c r="BX13" s="1">
-        <f>SUM(BA5:BA62)</f>
-        <v>2211469</v>
-      </c>
-      <c r="BY13" s="23">
-        <f>AVERAGE(BB5:BB62)</f>
-        <v>8.4172413793103473</v>
+        <v>2013</v>
+      </c>
+      <c r="BX13" s="18">
+        <f>SUM(BO5:BO300)</f>
+        <v>2440812</v>
+      </c>
+      <c r="BY13" s="18">
+        <f>AVERAGE(BP6:BP300)</f>
+        <v>8.7789473684210542</v>
+      </c>
+      <c r="BZ13" s="18">
+        <f>AVERAGE(BQ6:BQ300)</f>
+        <v>6.8087719298245597</v>
+      </c>
+      <c r="CA13" s="18">
+        <f>AVERAGE(BR6:BR300)</f>
+        <v>11.129824561403513</v>
+      </c>
+      <c r="CB13" s="24">
+        <f t="shared" si="0"/>
+        <v>27803014.388489205</v>
+      </c>
+      <c r="CC13" s="1">
+        <f t="shared" si="1"/>
+        <v>1893043.8393285365</v>
+      </c>
+      <c r="CD13" s="1">
+        <f t="shared" si="2"/>
+        <v>3094426.7242206242</v>
       </c>
     </row>
-    <row r="14" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -5207,19 +4500,8 @@
       <c r="BU14" s="11">
         <v>11.2</v>
       </c>
-      <c r="BW14" s="1">
-        <v>2012</v>
-      </c>
-      <c r="BX14" s="23">
-        <f>SUM(BH5:BH62)</f>
-        <v>2297528</v>
-      </c>
-      <c r="BY14" s="23">
-        <f>AVERAGE(BI5:BI62)</f>
-        <v>8.5551724137931053</v>
-      </c>
     </row>
-    <row r="15" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -5439,19 +4721,8 @@
       <c r="BU15" s="11">
         <v>10.4</v>
       </c>
-      <c r="BW15" s="1">
-        <v>2013</v>
-      </c>
-      <c r="BX15" s="23">
-        <f>SUM(BO5:BO62)</f>
-        <v>2440812</v>
-      </c>
-      <c r="BY15" s="23">
-        <f>AVERAGE(BP6:BP63)</f>
-        <v>8.7789473684210542</v>
-      </c>
     </row>
-    <row r="16" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -15853,7 +15124,6 @@
     <mergeCell ref="BO3:BU3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>